--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1139">
   <si>
     <t>anchor score</t>
   </si>
@@ -346,817 +346,817 @@
     <t>share</t>
   </si>
   <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>reporting</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>pledge</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>exposed</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>council</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>bottles</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>reporting</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>pledge</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>significant</t>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>nashville</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>lowe</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>hungry</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>exposed</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>running</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>council</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>practice</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>bottles</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>ao</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>nashville</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>lowe</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>2019</t>
@@ -3799,7 +3799,7 @@
         <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4478,7 +4478,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4528,7 +4528,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K18">
         <v>0.9722222222222222</v>
@@ -4728,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K20">
         <v>0.9545454545454546</v>
@@ -4828,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K22">
         <v>0.9333333333333333</v>
@@ -4878,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K23">
         <v>0.9230769230769231</v>
@@ -4928,7 +4928,7 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K24">
         <v>0.9230769230769231</v>
@@ -4978,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K25">
         <v>0.9230769230769231</v>
@@ -5178,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K29">
         <v>0.9090909090909091</v>
@@ -5228,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K30">
         <v>0.9090909090909091</v>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K32">
         <v>0.9</v>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K34">
         <v>0.8936170212765957</v>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K35">
         <v>0.8888888888888888</v>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K36">
         <v>0.8888888888888888</v>
@@ -5678,7 +5678,7 @@
         <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K39">
         <v>0.875</v>
@@ -5728,7 +5728,7 @@
         <v>6</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K40">
         <v>0.8740157480314961</v>
@@ -5778,7 +5778,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K41">
         <v>0.8666666666666667</v>
@@ -5878,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K43">
         <v>0.8666666666666667</v>
@@ -5928,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K44">
         <v>0.8571428571428571</v>
@@ -5978,7 +5978,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -6128,7 +6128,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K48">
         <v>0.85</v>
@@ -6178,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K49">
         <v>0.8461538461538461</v>
@@ -6278,7 +6278,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K51">
         <v>0.8421052631578947</v>
@@ -6428,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K54">
         <v>0.8333333333333334</v>
@@ -6478,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K55">
         <v>0.8333333333333334</v>
@@ -6528,7 +6528,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K56">
         <v>0.8333333333333334</v>
@@ -6578,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6628,7 +6628,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6678,7 +6678,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K59">
         <v>0.8333333333333334</v>
@@ -6778,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K61">
         <v>0.8333333333333334</v>
@@ -6828,7 +6828,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K62">
         <v>0.8181818181818182</v>
@@ -6878,7 +6878,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K63">
         <v>0.8181818181818182</v>
@@ -6928,7 +6928,7 @@
         <v>4</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K64">
         <v>0.8095238095238095</v>
@@ -6978,7 +6978,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K65">
         <v>0.8012820512820513</v>
@@ -7078,7 +7078,7 @@
         <v>13</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K67">
         <v>0.8</v>
@@ -7228,7 +7228,7 @@
         <v>5</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K70">
         <v>0.8</v>
@@ -7328,7 +7328,7 @@
         <v>16</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K72">
         <v>0.7857142857142857</v>
@@ -7378,7 +7378,7 @@
         <v>11</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K73">
         <v>0.7801418439716312</v>
@@ -7478,7 +7478,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K75">
         <v>0.7777777777777778</v>
@@ -7528,7 +7528,7 @@
         <v>3</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K76">
         <v>0.7777777777777778</v>
@@ -7628,7 +7628,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K78">
         <v>0.75</v>
@@ -7678,7 +7678,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K79">
         <v>0.75</v>
@@ -7728,7 +7728,7 @@
         <v>23</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K80">
         <v>0.75</v>
@@ -7778,7 +7778,7 @@
         <v>11</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K81">
         <v>0.75</v>
@@ -7828,7 +7828,7 @@
         <v>15</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K82">
         <v>0.75</v>
@@ -7878,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K83">
         <v>0.75</v>
@@ -7928,7 +7928,7 @@
         <v>4</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K84">
         <v>0.75</v>
@@ -8078,7 +8078,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K87">
         <v>0.75</v>
@@ -8128,7 +8128,7 @@
         <v>16</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K88">
         <v>0.75</v>
@@ -8178,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K89">
         <v>0.75</v>
@@ -8228,28 +8228,28 @@
         <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="K90">
-        <v>0.7444933920704846</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L90">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="M90">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="N90">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O90">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8278,28 +8278,28 @@
         <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="K91">
         <v>0.7272727272727273</v>
       </c>
       <c r="L91">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N91">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O91">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -8328,7 +8328,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K92">
         <v>0.7272727272727273</v>
@@ -8378,28 +8378,28 @@
         <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="K93">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L93">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N93">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O93">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -8428,7 +8428,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K94">
         <v>0.7222222222222222</v>
@@ -8478,28 +8478,28 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>114</v>
+        <v>351</v>
       </c>
       <c r="K95">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L95">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N95">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -8528,7 +8528,7 @@
         <v>4</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>353</v>
+        <v>64</v>
       </c>
       <c r="K96">
         <v>0.7142857142857143</v>
@@ -8537,16 +8537,16 @@
         <v>5</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -8578,7 +8578,7 @@
         <v>13</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="K97">
         <v>0.7142857142857143</v>
@@ -8587,16 +8587,16 @@
         <v>5</v>
       </c>
       <c r="M97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N97">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -8628,7 +8628,7 @@
         <v>13</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K98">
         <v>0.7142857142857143</v>
@@ -8678,7 +8678,7 @@
         <v>9</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K99">
         <v>0.7142857142857143</v>
@@ -8728,7 +8728,7 @@
         <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K100">
         <v>0.7142857142857143</v>
@@ -8778,7 +8778,7 @@
         <v>9</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K101">
         <v>0.7142857142857143</v>
@@ -8828,7 +8828,7 @@
         <v>9</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K102">
         <v>0.7142857142857143</v>
@@ -8878,28 +8878,28 @@
         <v>9</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="K103">
-        <v>0.7142857142857143</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="M103">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -8928,28 +8928,28 @@
         <v>19</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K104">
-        <v>0.7121212121212122</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L104">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M104">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N104">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O104">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -8957,49 +8957,49 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1714285714285714</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="K105">
         <v>0.7111111111111111</v>
       </c>
       <c r="L105">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M105">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N105">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O105">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -9028,28 +9028,28 @@
         <v>10</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="K106">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L106">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="M106">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N106">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -9060,10 +9060,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -9075,10 +9075,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K107">
         <v>0.7</v>
@@ -9113,22 +9113,22 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K108">
         <v>0.6857142857142857</v>
@@ -9163,16 +9163,16 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>5</v>
@@ -9213,22 +9213,22 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -9263,13 +9263,13 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F111">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -9278,7 +9278,7 @@
         <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K111">
         <v>0.6666666666666666</v>
@@ -9313,13 +9313,13 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F112">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
@@ -9328,7 +9328,7 @@
         <v>5</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -9357,28 +9357,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D113">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9407,7 +9407,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.16</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -9478,7 +9478,7 @@
         <v>22</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -9507,13 +9507,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1538461538461539</v>
+        <v>0.15</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -9525,10 +9525,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K116">
         <v>0.6666666666666666</v>
@@ -9557,28 +9557,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.15</v>
+        <v>0.1475728155339806</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>17</v>
+        <v>439</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K117">
         <v>0.6666666666666666</v>
@@ -9607,28 +9607,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1475728155339806</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C118">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>439</v>
+        <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K118">
         <v>0.6666666666666666</v>
@@ -9663,22 +9663,22 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K119">
         <v>0.6666666666666666</v>
@@ -9713,13 +9713,13 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F120">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
@@ -9728,7 +9728,7 @@
         <v>6</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K120">
         <v>0.6666666666666666</v>
@@ -9763,13 +9763,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F121">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9778,7 +9778,7 @@
         <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K121">
         <v>0.6666666666666666</v>
@@ -9813,22 +9813,22 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>6</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K122">
         <v>0.6666666666666666</v>
@@ -9863,22 +9863,22 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>6</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K123">
         <v>0.6666666666666666</v>
@@ -9910,25 +9910,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E124">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F124">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K124">
         <v>0.6614173228346457</v>
@@ -9960,25 +9960,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K125">
         <v>0.6585365853658537</v>
@@ -10013,22 +10013,22 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>6</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K126">
         <v>0.6521739130434783</v>
@@ -10063,22 +10063,22 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K127">
         <v>0.6470588235294118</v>
@@ -10128,7 +10128,7 @@
         <v>6</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K128">
         <v>0.6428571428571429</v>
@@ -10157,13 +10157,13 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.1428571428571428</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>92</v>
@@ -10207,25 +10207,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.1372549019607843</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>99</v>
@@ -10257,28 +10257,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K131">
         <v>0.6363636363636364</v>
@@ -10310,46 +10310,46 @@
         <v>0.125</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K132">
-        <v>0.636085626911315</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L132">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="M132">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="N132">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O132">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -10363,13 +10363,13 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.6</v>
+        <v>0.93</v>
       </c>
       <c r="F133">
-        <v>0.4</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -10378,28 +10378,28 @@
         <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K133">
-        <v>0.631578947368421</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L133">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="M133">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="N133">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O133">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P133" t="b">
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -10407,49 +10407,49 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="K134">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L134">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M134">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N134">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O134">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -10457,49 +10457,49 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.1176470588235294</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C135">
         <v>4</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="K135">
         <v>0.625</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M135">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N135">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O135">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -10507,49 +10507,49 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.1142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>106</v>
+        <v>378</v>
       </c>
       <c r="K136">
         <v>0.625</v>
       </c>
       <c r="L136">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N136">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O136">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -10563,16 +10563,16 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>8</v>
@@ -10581,25 +10581,25 @@
         <v>379</v>
       </c>
       <c r="K137">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L137">
+        <v>8</v>
+      </c>
+      <c r="M137">
+        <v>8</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137">
         <v>5</v>
-      </c>
-      <c r="M137">
-        <v>5</v>
-      </c>
-      <c r="N137">
-        <v>1</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -10607,13 +10607,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -10625,10 +10625,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="K138">
         <v>0.6153846153846154</v>
@@ -10637,16 +10637,16 @@
         <v>8</v>
       </c>
       <c r="M138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N138">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q138">
         <v>5</v>
@@ -10660,10 +10660,10 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -10675,31 +10675,31 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="K139">
-        <v>0.6153846153846154</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L139">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M139">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N139">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="O139">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="P139" t="b">
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -10707,13 +10707,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -10725,31 +10725,31 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="K140">
-        <v>0.6129032258064516</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L140">
+        <v>30</v>
+      </c>
+      <c r="M140">
+        <v>31</v>
+      </c>
+      <c r="N140">
+        <v>0.97</v>
+      </c>
+      <c r="O140">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P140" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q140">
         <v>19</v>
-      </c>
-      <c r="M140">
-        <v>22</v>
-      </c>
-      <c r="N140">
-        <v>0.86</v>
-      </c>
-      <c r="O140">
-        <v>0.14</v>
-      </c>
-      <c r="P140" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q140">
-        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -10760,46 +10760,46 @@
         <v>0.1</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="K141">
-        <v>0.6122448979591837</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L141">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="M141">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="N141">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O141">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -10813,13 +10813,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E142">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F142">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10863,13 +10863,13 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F143">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -10913,16 +10913,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>9</v>
@@ -10963,16 +10963,16 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>9</v>
@@ -11013,13 +11013,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -11063,13 +11063,13 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F147">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -11107,25 +11107,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>65</v>
@@ -11157,25 +11157,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.09848484848484848</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C149">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>107</v>
@@ -11207,13 +11207,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -11225,10 +11225,10 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K150">
         <v>0.5862068965517241</v>
@@ -11263,16 +11263,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>10</v>
@@ -11363,13 +11363,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F153">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -11378,7 +11378,7 @@
         <v>10</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K153">
         <v>0.5714285714285714</v>
@@ -11413,16 +11413,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>10</v>
@@ -11463,13 +11463,13 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
@@ -11513,13 +11513,13 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
@@ -11563,13 +11563,13 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
@@ -11613,13 +11613,13 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F158">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -11657,25 +11657,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D159">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="E159">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F159">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>388</v>
@@ -11707,25 +11707,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>389</v>
@@ -11757,25 +11757,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>390</v>
@@ -11813,22 +11813,22 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>11</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K162">
         <v>0.5625</v>
@@ -11857,25 +11857,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>391</v>
@@ -11907,25 +11907,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F164">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>392</v>
@@ -11957,7 +11957,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -11975,10 +11975,10 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K165">
         <v>0.5357142857142857</v>
@@ -12013,13 +12013,13 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F166">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
@@ -12060,22 +12060,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>394</v>
@@ -12113,22 +12113,22 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>12</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K168">
         <v>0.52</v>
@@ -12163,16 +12163,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>12</v>
@@ -12213,16 +12213,16 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>12</v>
@@ -12307,25 +12307,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E172">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F172">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>398</v>
@@ -12357,13 +12357,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>399</v>
@@ -12407,25 +12407,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F174">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>400</v>
@@ -12460,22 +12460,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>401</v>
@@ -12513,13 +12513,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F176">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -12560,22 +12560,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <v>9</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>403</v>
@@ -12663,13 +12663,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12713,13 +12713,13 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -12763,16 +12763,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>13</v>
@@ -12813,13 +12813,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12863,16 +12863,16 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
         <v>13</v>
@@ -12907,25 +12907,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>407</v>
@@ -12957,25 +12957,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>408</v>
@@ -13010,22 +13010,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>409</v>
@@ -13110,22 +13110,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>411</v>
@@ -13157,13 +13157,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>412</v>
@@ -13207,13 +13207,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>413</v>
@@ -13257,13 +13257,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>414</v>
@@ -13313,16 +13313,16 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>15</v>
@@ -13363,16 +13363,16 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>15</v>
@@ -13413,13 +13413,13 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E194">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
@@ -13463,22 +13463,22 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>15</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K195">
         <v>0.4642857142857143</v>
@@ -13513,16 +13513,16 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>15</v>
@@ -13557,28 +13557,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K197">
         <v>0.4545454545454545</v>
@@ -13607,25 +13607,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>419</v>
@@ -13657,25 +13657,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="E199">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="F199">
-        <v>0.01000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>420</v>
@@ -13713,16 +13713,16 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>17</v>
@@ -13757,25 +13757,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>422</v>
@@ -13807,25 +13807,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>423</v>
@@ -13863,16 +13863,16 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>18</v>
@@ -13910,22 +13910,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E204">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F204">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>425</v>
@@ -13963,22 +13963,22 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>18</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K205">
         <v>0.4347826086956522</v>
@@ -14013,22 +14013,22 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>18</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K206">
         <v>0.4285714285714285</v>
@@ -14057,25 +14057,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>100</v>
@@ -14107,25 +14107,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>426</v>
@@ -14163,13 +14163,13 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F209">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
@@ -14213,16 +14213,16 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>19</v>
@@ -14263,13 +14263,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -14357,25 +14357,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E213">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F213">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>429</v>
@@ -14407,25 +14407,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>430</v>
@@ -14463,13 +14463,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E215">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F215">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -14507,25 +14507,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>432</v>
@@ -14557,25 +14557,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>433</v>
@@ -14607,25 +14607,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>434</v>
@@ -14657,25 +14657,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>435</v>
@@ -14707,25 +14707,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>93</v>
@@ -14757,25 +14757,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E221">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F221">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>436</v>
@@ -14807,25 +14807,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>437</v>
@@ -14860,22 +14860,22 @@
         <v>0.04</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F223">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>438</v>
@@ -14907,25 +14907,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>439</v>
@@ -14957,25 +14957,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.04</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <v>15</v>
       </c>
       <c r="E225">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F225">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>440</v>
@@ -15007,13 +15007,13 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E226">
         <v>0.97</v>
@@ -15025,7 +15025,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>441</v>
@@ -15057,25 +15057,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F227">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>442</v>
@@ -15107,25 +15107,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>443</v>
@@ -15157,25 +15157,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>444</v>
@@ -15207,28 +15207,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F230">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K230">
         <v>0.3809523809523809</v>
@@ -15263,22 +15263,22 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
         <v>31</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K231">
         <v>0.3793103448275862</v>
@@ -15307,25 +15307,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D232">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E232">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F232">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>445</v>
@@ -15357,25 +15357,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.03125</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E233">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F233">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>446</v>
@@ -15407,25 +15407,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.03</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>447</v>
@@ -15457,25 +15457,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02898550724637681</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>448</v>
@@ -15507,25 +15507,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>449</v>
@@ -15557,25 +15557,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>450</v>
@@ -15613,16 +15613,16 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
         <v>36</v>
@@ -15663,16 +15663,16 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>36</v>
@@ -15707,25 +15707,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E240">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F240">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>453</v>
@@ -15757,13 +15757,13 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.02702702702702703</v>
+        <v>0.025</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>454</v>
@@ -15807,25 +15807,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>455</v>
@@ -15860,22 +15860,22 @@
         <v>0.025</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
         <v>2</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>456</v>
@@ -15913,16 +15913,16 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
         <v>39</v>
@@ -15957,25 +15957,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E245">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F245">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>458</v>
@@ -16007,25 +16007,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>459</v>
@@ -16057,25 +16057,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E247">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F247">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>460</v>
@@ -16107,28 +16107,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.02380952380952381</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K248">
         <v>0.3571428571428572</v>
@@ -16157,28 +16157,28 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.02325581395348837</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E249">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F249">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K249">
         <v>0.3571428571428572</v>
@@ -16207,25 +16207,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E250">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F250">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>461</v>
@@ -16257,25 +16257,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E251">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F251">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>462</v>
@@ -16307,25 +16307,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E252">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F252">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>463</v>
@@ -16357,25 +16357,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E253">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F253">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>464</v>
@@ -16407,28 +16407,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.02</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K254">
         <v>0.3529411764705883</v>
@@ -16457,25 +16457,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>465</v>
@@ -16507,7 +16507,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01818181818181818</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16525,10 +16525,10 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K256">
         <v>0.3461538461538461</v>
@@ -16557,28 +16557,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01818181818181818</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K257">
         <v>0.3414634146341464</v>
@@ -16607,28 +16607,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K258">
         <v>0.3333333333333333</v>
@@ -16657,25 +16657,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01652892561983471</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="C259">
         <v>2</v>
       </c>
       <c r="D259">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E259">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F259">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>466</v>
@@ -16707,25 +16707,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E260">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F260">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>467</v>
@@ -16757,25 +16757,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01574803149606299</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="C261">
         <v>2</v>
       </c>
       <c r="D261">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="E261">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F261">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>468</v>
@@ -16807,25 +16807,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.015625</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F262">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>469</v>
@@ -16857,25 +16857,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01526717557251908</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D263">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="E263">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F263">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>470</v>
@@ -16907,25 +16907,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01449275362318841</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>471</v>
@@ -16957,25 +16957,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01351351351351351</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>472</v>
@@ -17007,25 +17007,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0131578947368421</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>473</v>
@@ -17057,28 +17057,28 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01298701298701299</v>
+        <v>0.0125</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K267">
         <v>0.3333333333333333</v>
@@ -17107,25 +17107,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E268">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F268">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>76</v>
@@ -17157,25 +17157,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0125</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E269">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F269">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>474</v>
@@ -17207,25 +17207,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01234567901234568</v>
+        <v>0.01173020527859238</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D270">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E270">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F270">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>475</v>
@@ -17257,25 +17257,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01176470588235294</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E271">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F271">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>476</v>
@@ -17307,25 +17307,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01173020527859238</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E272">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F272">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>477</v>
@@ -17357,25 +17357,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01149425287356322</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E273">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F273">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>478</v>
@@ -17407,25 +17407,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01136363636363636</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E274">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F274">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>479</v>
@@ -17457,25 +17457,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01123595505617977</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E275">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F275">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>480</v>
@@ -17507,25 +17507,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01098901098901099</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E276">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F276">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>481</v>
@@ -17557,13 +17557,13 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.009259259259259259</v>
+        <v>0.006377551020408163</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D277">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="E277">
         <v>0.96</v>
@@ -17575,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>107</v>
+        <v>779</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>482</v>
@@ -17607,13 +17607,13 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.009009009009009009</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D278">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E278">
         <v>0.96</v>
@@ -17625,7 +17625,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>110</v>
+        <v>785</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>483</v>
@@ -17657,25 +17657,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.006377551020408163</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C279">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E279">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>779</v>
+        <v>165</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>94</v>
@@ -17707,25 +17707,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.006329113924050633</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="C280">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E280">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F280">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>785</v>
+        <v>173</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>95</v>
@@ -17757,25 +17757,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.006024096385542169</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>484</v>
@@ -17807,13 +17807,13 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.005747126436781609</v>
+        <v>0.00487012987012987</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E282">
         <v>0.92</v>
@@ -17825,7 +17825,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>173</v>
+        <v>613</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>485</v>
@@ -17857,25 +17857,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.004901960784313725</v>
+        <v>0.003696857670979667</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E283">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F283">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>203</v>
+        <v>539</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>486</v>
@@ -17907,28 +17907,28 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.00487012987012987</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E284">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F284">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>613</v>
+        <v>276</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K284">
         <v>0.3260869565217391</v>
@@ -17957,28 +17957,28 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.003696857670979667</v>
+        <v>0.0034296913277805</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D285">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="E285">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F285">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>539</v>
+        <v>2034</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K285">
         <v>0.3214285714285715</v>
@@ -18007,28 +18007,28 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.003610108303249098</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E286">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F286">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K286">
         <v>0.3214285714285715</v>
@@ -18057,28 +18057,28 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.0034296913277805</v>
+        <v>0.002985074626865672</v>
       </c>
       <c r="C287">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="E287">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F287">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>2034</v>
+        <v>334</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K287">
         <v>0.3157894736842105</v>
@@ -18107,25 +18107,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.003246753246753247</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E288">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F288">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>487</v>
@@ -18157,25 +18157,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.002985074626865672</v>
+        <v>0.00235136042996305</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D289">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="E289">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F289">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>334</v>
+        <v>2970</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>488</v>
@@ -18207,28 +18207,28 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.002824858757062147</v>
+        <v>0.002098635886673662</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D290">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E290">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F290">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>353</v>
+        <v>951</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K290">
         <v>0.3076923076923077</v>
@@ -18257,25 +18257,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.00235136042996305</v>
+        <v>0.001187648456057007</v>
       </c>
       <c r="C291">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F291">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>2970</v>
+        <v>841</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>489</v>
@@ -18307,25 +18307,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.002098635886673662</v>
+        <v>0.000957548675390999</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D292">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E292">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F292">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>951</v>
+        <v>3130</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>490</v>
@@ -18353,30 +18353,6 @@
       </c>
     </row>
     <row r="293" spans="1:17">
-      <c r="A293" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B293">
-        <v>0.001187648456057007</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293">
-        <v>26</v>
-      </c>
-      <c r="E293">
-        <v>0.96</v>
-      </c>
-      <c r="F293">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G293" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293">
-        <v>841</v>
-      </c>
       <c r="J293" s="1" t="s">
         <v>491</v>
       </c>
@@ -18403,30 +18379,6 @@
       </c>
     </row>
     <row r="294" spans="1:17">
-      <c r="A294" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B294">
-        <v>0.000957548675390999</v>
-      </c>
-      <c r="C294">
-        <v>3</v>
-      </c>
-      <c r="D294">
-        <v>71</v>
-      </c>
-      <c r="E294">
-        <v>0.96</v>
-      </c>
-      <c r="F294">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G294" t="b">
-        <v>1</v>
-      </c>
-      <c r="H294">
-        <v>3130</v>
-      </c>
       <c r="J294" s="1" t="s">
         <v>492</v>
       </c>
@@ -18558,7 +18510,7 @@
     </row>
     <row r="299" spans="1:17">
       <c r="J299" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K299">
         <v>0.2947368421052631</v>
@@ -18584,7 +18536,7 @@
     </row>
     <row r="300" spans="1:17">
       <c r="J300" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K300">
         <v>0.2946859903381642</v>
@@ -18792,7 +18744,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K308">
         <v>0.2857142857142857</v>
@@ -18974,7 +18926,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K315">
         <v>0.2857142857142857</v>
@@ -19286,7 +19238,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K327">
         <v>0.2727272727272727</v>
@@ -19442,7 +19394,7 @@
     </row>
     <row r="333" spans="10:17">
       <c r="J333" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K333">
         <v>0.2608695652173913</v>
@@ -19494,7 +19446,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K335">
         <v>0.25</v>
@@ -20040,7 +19992,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K356">
         <v>0.2307692307692308</v>
@@ -20118,7 +20070,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K359">
         <v>0.2307692307692308</v>
@@ -20716,7 +20668,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K382">
         <v>0.2131147540983606</v>
@@ -20742,7 +20694,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K383">
         <v>0.2105263157894737</v>
@@ -20898,7 +20850,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K389">
         <v>0.2038216560509554</v>
@@ -21002,7 +20954,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K393">
         <v>0.2</v>
@@ -21366,7 +21318,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K407">
         <v>0.1935483870967742</v>
@@ -21418,7 +21370,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K409">
         <v>0.1923076923076923</v>
@@ -21444,7 +21396,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K410">
         <v>0.1923076923076923</v>
@@ -21548,7 +21500,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K414">
         <v>0.1875</v>
@@ -21600,7 +21552,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K416">
         <v>0.1864406779661017</v>
@@ -21652,7 +21604,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K418">
         <v>0.1820388349514563</v>
@@ -21756,7 +21708,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K422">
         <v>0.1818181818181818</v>
@@ -22016,7 +21968,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K432">
         <v>0.1770833333333333</v>
@@ -22042,7 +21994,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K433">
         <v>0.1769230769230769</v>
@@ -22120,7 +22072,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K436">
         <v>0.1764705882352941</v>
@@ -22146,7 +22098,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K437">
         <v>0.1752577319587629</v>
@@ -22328,7 +22280,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K444">
         <v>0.1702127659574468</v>
@@ -22380,7 +22332,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K446">
         <v>0.1666666666666667</v>
@@ -23186,7 +23138,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K477">
         <v>0.1666666666666667</v>
@@ -23264,7 +23216,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K480">
         <v>0.1666666666666667</v>
@@ -23576,7 +23528,7 @@
     </row>
     <row r="492" spans="10:17">
       <c r="J492" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K492">
         <v>0.1637931034482759</v>
@@ -23810,7 +23762,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K501">
         <v>0.1549295774647887</v>
@@ -23992,7 +23944,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K508">
         <v>0.1538461538461539</v>
@@ -24122,7 +24074,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K513">
         <v>0.1454545454545454</v>
@@ -24330,7 +24282,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K521">
         <v>0.1428571428571428</v>
@@ -24408,7 +24360,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K524">
         <v>0.1428571428571428</v>
@@ -25162,7 +25114,7 @@
     </row>
     <row r="553" spans="10:17">
       <c r="J553" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K553">
         <v>0.1428571428571428</v>
@@ -25292,7 +25244,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K558">
         <v>0.1408450704225352</v>
@@ -25318,7 +25270,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K559">
         <v>0.1398305084745763</v>
@@ -25370,7 +25322,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K561">
         <v>0.1363636363636364</v>
@@ -25448,7 +25400,7 @@
     </row>
     <row r="564" spans="10:17">
       <c r="J564" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K564">
         <v>0.1333333333333333</v>
@@ -25474,7 +25426,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K565">
         <v>0.1333333333333333</v>
@@ -25682,7 +25634,7 @@
     </row>
     <row r="573" spans="10:17">
       <c r="J573" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K573">
         <v>0.1304347826086956</v>
@@ -25812,7 +25764,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K578">
         <v>0.125</v>
@@ -26410,7 +26362,7 @@
     </row>
     <row r="601" spans="10:17">
       <c r="J601" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K601">
         <v>0.1238839285714286</v>
@@ -26436,7 +26388,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K602">
         <v>0.1237345331833521</v>
@@ -26540,7 +26492,7 @@
     </row>
     <row r="606" spans="10:17">
       <c r="J606" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K606">
         <v>0.1212121212121212</v>
@@ -26566,7 +26518,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K607">
         <v>0.1212121212121212</v>
@@ -26800,7 +26752,7 @@
     </row>
     <row r="616" spans="10:17">
       <c r="J616" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K616">
         <v>0.1153846153846154</v>
@@ -26904,7 +26856,7 @@
     </row>
     <row r="620" spans="10:17">
       <c r="J620" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K620">
         <v>0.1122448979591837</v>
@@ -27060,7 +27012,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K626">
         <v>0.1111111111111111</v>
@@ -27658,7 +27610,7 @@
     </row>
     <row r="649" spans="10:17">
       <c r="J649" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K649">
         <v>0.1090909090909091</v>
@@ -27710,7 +27662,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K651">
         <v>0.1052631578947368</v>
@@ -28152,7 +28104,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K668">
         <v>0.1</v>
@@ -28230,7 +28182,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K671">
         <v>0.1</v>
@@ -28282,7 +28234,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K673">
         <v>0.09848484848484848</v>
@@ -28360,7 +28312,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K676">
         <v>0.09090909090909091</v>
@@ -28386,7 +28338,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K677">
         <v>0.09090909090909091</v>
@@ -28438,7 +28390,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K679">
         <v>0.09090909090909091</v>
@@ -28464,7 +28416,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K680">
         <v>0.09090909090909091</v>
@@ -29790,7 +29742,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K731">
         <v>0.07692307692307693</v>
@@ -30154,7 +30106,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K745">
         <v>0.07142857142857142</v>
@@ -30258,7 +30210,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K749">
         <v>0.07142857142857142</v>
@@ -30414,7 +30366,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K755">
         <v>0.06666666666666667</v>
@@ -30596,7 +30548,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K762">
         <v>0.06382978723404255</v>
@@ -31038,7 +30990,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K779">
         <v>0.05978260869565218</v>
@@ -31272,7 +31224,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K788">
         <v>0.05828220858895705</v>
@@ -32000,7 +31952,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K816">
         <v>0.05255023183925812</v>
@@ -32182,7 +32134,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K823">
         <v>0.05</v>
@@ -32286,7 +32238,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K827">
         <v>0.04775280898876404</v>
@@ -32546,7 +32498,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K837">
         <v>0.04601769911504425</v>
@@ -33144,7 +33096,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K860">
         <v>0.04225352112676056</v>
@@ -33170,7 +33122,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K861">
         <v>0.04193548387096774</v>
@@ -33274,7 +33226,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K865">
         <v>0.04166666666666666</v>
@@ -33430,7 +33382,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K871">
         <v>0.04022988505747126</v>
@@ -34678,7 +34630,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K919">
         <v>0.03076923076923077</v>
@@ -34912,7 +34864,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K928">
         <v>0.02886836027713626</v>
@@ -34990,7 +34942,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K931">
         <v>0.02857142857142857</v>
@@ -35406,7 +35358,7 @@
     </row>
     <row r="947" spans="10:17">
       <c r="J947" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K947">
         <v>0.025</v>
@@ -35718,7 +35670,7 @@
     </row>
     <row r="959" spans="10:17">
       <c r="J959" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K959">
         <v>0.02272727272727273</v>
@@ -36056,7 +36008,7 @@
     </row>
     <row r="972" spans="10:17">
       <c r="J972" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K972">
         <v>0.02127659574468085</v>
@@ -36082,7 +36034,7 @@
     </row>
     <row r="973" spans="10:17">
       <c r="J973" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K973">
         <v>0.02126328955597248</v>
@@ -36498,7 +36450,7 @@
     </row>
     <row r="989" spans="10:17">
       <c r="J989" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K989">
         <v>0.01671309192200557</v>
@@ -36602,7 +36554,7 @@
     </row>
     <row r="993" spans="10:17">
       <c r="J993" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K993">
         <v>0.01552795031055901</v>
@@ -36784,7 +36736,7 @@
     </row>
     <row r="1000" spans="10:17">
       <c r="J1000" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K1000">
         <v>0.01428571428571429</v>
@@ -37044,7 +36996,7 @@
     </row>
     <row r="1010" spans="10:17">
       <c r="J1010" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1010">
         <v>0.01176470588235294</v>
@@ -37486,7 +37438,7 @@
     </row>
     <row r="1027" spans="10:17">
       <c r="J1027" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K1027">
         <v>0.002272727272727273</v>
